--- a/Assets/Resources/ShoppingList.xlsx
+++ b/Assets/Resources/ShoppingList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Share Folder\Game\HappyInside\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Share Folder\Game\HappyInside\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,36 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
-    <t>슬리퍼</t>
-  </si>
-  <si>
-    <t>미니백</t>
-  </si>
-  <si>
-    <t>향수</t>
-  </si>
-  <si>
-    <t>벨트</t>
-  </si>
-  <si>
-    <t>스카프(목도리st)</t>
-  </si>
-  <si>
-    <t>가방(핸드백)</t>
-  </si>
-  <si>
-    <t>팔찌</t>
-  </si>
-  <si>
-    <t>정장</t>
-  </si>
-  <si>
-    <t>시계</t>
-  </si>
-  <si>
-    <t>목걸이</t>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -204,51 +174,91 @@
     <t>Fake_4</t>
   </si>
   <si>
+    <t>c_miniback</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_perfume</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_belt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_scarf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_handbag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_bracelet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_suit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_watch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_necklace</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_miniback_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_miniback_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>c_slipper</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>c_miniback</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_perfume</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_belt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_scarf</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_handbag</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_bracelet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_suit</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_watch</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_necklace</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_miniback_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_miniback_3</t>
+    <t>slipper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniback</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfume</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>belt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bracelet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>suit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>necklace</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1170,7 +1180,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1183,28 +1193,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1212,25 +1222,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>1000000</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1238,25 +1248,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2000000</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1264,25 +1274,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>3000000</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1290,25 +1300,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>5000000</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1316,25 +1326,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>8000000</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1342,25 +1352,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>10000000</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1368,25 +1378,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>15000000</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1394,25 +1404,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>20000000</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,25 +1430,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>30000000</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1446,25 +1456,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>50000000</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
